--- a/DataTables/Datas/#Chapter_Mission.xlsx
+++ b/DataTables/Datas/#Chapter_Mission.xlsx
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1143,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1171,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1185,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1199,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1227,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1255,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1283,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1325,7 +1325,7 @@
         <v>16</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1339,7 +1339,7 @@
         <v>17</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         <v>19</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>2</v>
